--- a/biology/Zoologie/Dinosaure_(film,_2000)/Dinosaure_(film,_2000).xlsx
+++ b/biology/Zoologie/Dinosaure_(film,_2000)/Dinosaure_(film,_2000).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dinosaure ou Le Dinosaure au Québec (Dinosaur) est le 65e long-métrage d'animation des studios Disney et le 39e « Classique d'animation ». Sorti en 2000 et réalisé par Ralph Zondag et Eric Leighton, c'est le premier « classique » mélangeant images de synthèse (personnages) et prises de vues réelles (décors naturels).
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Terre, il y a 65 millions d'années. Une colonie de lémuriens menant une existence paisible sur une île paradisiaque découvre par hasard un œuf de dinosaure. Lorsque la coquille se fissure, c'est un petit iguanodon qui en sort... Les lémuriens le recueillent et le baptisent Aladar. Celui-ci grandit parmi eux, avec pour famille adoptive un vieux lémurien, Yar, une mère adoptive, Plio, et deux jeunes lémuriens, Zini et Suri. Un jour, pendant une pluie de météores, une météorite détruit l'île et contraint tout le monde à l'exil. Ils trouvent refuge auprès d'un groupe de dinosaures voyageant à la recherche de la Terre des nids. Aladar se lie d'amitié avec deux vieux dinosaures femelles : Baylene, une brachiosaurus, et Eema, une styracosaurus, elles-mêmes accompagnés par Url, un ankylosaurus aux allures de chien fou. Aladar rencontre peu après Neera, une femelle, la première iguanodon qu'il ait jamais rencontré ; il en tombe rapidement amoureux. Mais très vite, Aladar se heurte à Kron, frère de Neera, qui a pris la tête de la troupe et se révèle vite d'un tempérament brutal. Kron ne se préoccupe guère d'assurer la survie des plus faibles. Affamée, menacée par les terrifiants carnotaures et secouée par des dissensions internes, la troupe n'a que peu d'espoir de survie. À moins d'accepter d'écouter Aladar…
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Titre original : Dinosaur
 Titre français : Dinosaure
@@ -567,7 +583,7 @@
 Production : Pam Marsden ; Baker Bloodworth (coproducteur)
 Société de production : Walt Disney Pictures
 Société de distribution : Buena Vista Pictures Distribution
-Budget : 200 millions de dollars américains[1]
+Budget : 200 millions de dollars américains
 Format : Couleurs - 35 mm - 1,85:1 - Dolby Digital - SDDS - DTS
 Durée : 79 minutes
 Dates de sortie :
@@ -604,8 +620,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Voix originales
-D. B. Sweeney : Aladar
+          <t>Voix originales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D. B. Sweeney : Aladar
 Max Casella : Zini
 Alfre Woodard : Plio
 Ossie Davis : Yar
@@ -615,9 +636,43 @@
 Peter Siragusa : Bruton
 Joan Plowright : Baylene
 Della Reese : Eema
-Michael T. Weiss : Creto
-Voix françaises
-Bruno Choël : Aladar
+Michael T. Weiss : Creto</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Dinosaure_(film,_2000)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinosaure_(film,_2000)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bruno Choël : Aladar
 Jamel Debbouze : Zini
 Micky Sébastian : Plio
 Med Hondo : Yar
@@ -626,9 +681,43 @@
 Ninou Fratellini : Neera
 Marc Alfos : Bruton
 Lily Baron : Baylene
-Perrette Pradier : Eema
-Voix québécoises
-Patrice Dubois : Aladar
+Perrette Pradier : Eema</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Dinosaure_(film,_2000)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinosaure_(film,_2000)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Voix québécoises</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Patrice Dubois : Aladar
 Michel Charette : Zini
 Nathalie Coupal : Plio
 Hubert Fielden : Yar
@@ -642,33 +731,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Dinosaure_(film,_2000)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dinosaure_(film,_2000)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Dinosaure_(film,_2000)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinosaure_(film,_2000)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Sorties cinéma</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sauf mention contraire, les informations suivantes sont issues de l'Internet Movie Database[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sauf mention contraire, les informations suivantes sont issues de l'Internet Movie Database.
 États-Unis : 13 mai 2000 (première), 19 mai 2000 (nationale)
 Singapour : 25 mai 2000
 Australie : 15 juin 2000
@@ -714,78 +805,6 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Dinosaure_(film,_2000)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dinosaure_(film,_2000)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Sorties vidéo</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>23 novembre 2001 : DVD
-4 avril 2007 : Blu-Ray</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Dinosaure_(film,_2000)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dinosaure_(film,_2000)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Conception du film</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Concept
-À l'origine, Dinosaure devait être un film muet proche de La Guerre du feu, écrit par Walon Green, scénariste de La Horde sauvage et Le Convoi de la peur, et réalisé par Paul Verhoeven. Les studios Disney, inquiets du résultat, préfèrent mettre fin au projet. Ce n'est que douze ans plus tard qu'il reparaît, sous la forme inattendue d'un film d'animation familial[3].
-Environ 900 personnes sont employées pour travailler sur le film[4].
-Animation
-Le film mêle des prises de vue réelles pour les décors et une animation en images de synthèse pour les personnages. Il s'agit du premier long métrage produit par les studios d'animation Disney à employer cette technique (dans le cas des tout premiers films d'animation intégralement en images de synthèse, produits par les studios Pixar, Disney n'en avait assuré que la distribution)[1].
-Musique
-La musique du film est composée par James Newton Howard. Au cours des années suivantes, Howard est de nouveau sollicité par Disney pour la musique des "classiques" suivants : Atlantide, l'empire perdu en 2001, La Planète au trésor en 2002.
-La chanson du générique de fin, Can Somebody Tell Me Who I Am, est composée et interprétée par le groupe allemand Orange Blue.
-Budget
-Le budget de production final de Dinosaure s'élève à 200 millions de dollars américains. Cela en fait l'un des films les plus chers de l'histoire du cinéma à son époque[1].
-S'y ajoute le budget de distribution et de publicité, qui s'élève à environ 50 millions de dollars américains pour un film d'animation Disney[4].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
@@ -807,17 +826,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Accueil</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Box office
-Critiques de presse
-En France
-Le journal Libération fait l'éloge des qualités visuelles du film, évoquant un « réalisme stupéfiant » et un premier quart d'heure d'« éblouissement inouï », mais se montre beaucoup plus réservé vis-à-vis de l'intrigue et des dialogues, déplorant un anthropomorphisme qui « sonne d'autant plus faux qu'il gâche la grande beauté sauvage reconstituée »[5]. Le Monde loue également un « réalisme saisissant », mais regrette que le scénario « recycle des archétypes maison. »[1].
-Distinctions
-James Newton Howard a reçu un ASCAP Award pour la composition de la bande originale du film[6].</t>
+          <t>Sorties vidéo</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>23 novembre 2001 : DVD
+4 avril 2007 : Blu-Ray</t>
         </is>
       </c>
     </row>
@@ -842,18 +859,286 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Conception du film</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Concept</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'origine, Dinosaure devait être un film muet proche de La Guerre du feu, écrit par Walon Green, scénariste de La Horde sauvage et Le Convoi de la peur, et réalisé par Paul Verhoeven. Les studios Disney, inquiets du résultat, préfèrent mettre fin au projet. Ce n'est que douze ans plus tard qu'il reparaît, sous la forme inattendue d'un film d'animation familial.
+Environ 900 personnes sont employées pour travailler sur le film.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Dinosaure_(film,_2000)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinosaure_(film,_2000)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Conception du film</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Animation</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film mêle des prises de vue réelles pour les décors et une animation en images de synthèse pour les personnages. Il s'agit du premier long métrage produit par les studios d'animation Disney à employer cette technique (dans le cas des tout premiers films d'animation intégralement en images de synthèse, produits par les studios Pixar, Disney n'en avait assuré que la distribution).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Dinosaure_(film,_2000)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinosaure_(film,_2000)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Conception du film</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La musique du film est composée par James Newton Howard. Au cours des années suivantes, Howard est de nouveau sollicité par Disney pour la musique des "classiques" suivants : Atlantide, l'empire perdu en 2001, La Planète au trésor en 2002.
+La chanson du générique de fin, Can Somebody Tell Me Who I Am, est composée et interprétée par le groupe allemand Orange Blue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Dinosaure_(film,_2000)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinosaure_(film,_2000)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Conception du film</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Budget</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le budget de production final de Dinosaure s'élève à 200 millions de dollars américains. Cela en fait l'un des films les plus chers de l'histoire du cinéma à son époque.
+S'y ajoute le budget de distribution et de publicité, qui s'élève à environ 50 millions de dollars américains pour un film d'animation Disney.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Dinosaure_(film,_2000)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinosaure_(film,_2000)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Critiques de presse</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le journal Libération fait l'éloge des qualités visuelles du film, évoquant un « réalisme stupéfiant » et un premier quart d'heure d'« éblouissement inouï », mais se montre beaucoup plus réservé vis-à-vis de l'intrigue et des dialogues, déplorant un anthropomorphisme qui « sonne d'autant plus faux qu'il gâche la grande beauté sauvage reconstituée ». Le Monde loue également un « réalisme saisissant », mais regrette que le scénario « recycle des archétypes maison. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Dinosaure_(film,_2000)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinosaure_(film,_2000)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Accueil</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>James Newton Howard a reçu un ASCAP Award pour la composition de la bande originale du film.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Dinosaure_(film,_2000)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinosaure_(film,_2000)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>Analyse</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les dinosaures au cinéma
-C'est en 1905 qu'apparaît l'un des premiers dinosaures à l'écran dans Prehistoric Man. En 1915, Willis O'Brien entame ses premiers essais avec des créatures préhistoriques. Ses créations, utilisées par Harry Hoyt en 1925 dans Le Monde perdu, marquent une nouvelle étape dans la carrière cinématographique des dinosaures.
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Les dinosaures au cinéma</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est en 1905 qu'apparaît l'un des premiers dinosaures à l'écran dans Prehistoric Man. En 1915, Willis O'Brien entame ses premiers essais avec des créatures préhistoriques. Ses créations, utilisées par Harry Hoyt en 1925 dans Le Monde perdu, marquent une nouvelle étape dans la carrière cinématographique des dinosaures.
 Dès lors, on en voit de plus en plus à l'écran : King Kong (1933), One Million B.C. (1940), Le Monstre des temps perdus (1953), Voyage au centre de la Terre (1959), Le Sixième continent (1975), sans oublier Jurassic Park (1993) et Le Monde perdu : Jurassic Park (1997).
-Le film Dinosaure utilise le même principe que la série documentaire britannique de la BBC Sur la terre des dinosaures créée par Tim Haines, et qui mélange images de synthèse (pour les personnages) et prises de vues réelles (pour les décors naturels). Sur la terre des dinosaures sort au début de l'année 2000. Fin 2000, au moment où sort Dinosaure de Disney, Jurassic Park III est en tournage[7].
-Dans le domaine du cinéma d'animation, les dinosaures sont apparus très tôt avec, dès 1914, le court métrage de dessin animé Gertie le dinosaure réalisé par Winsor McCay. Au moment où sort Dinosaure, le thème a été abordé brièvement par les studios Disney dans l'une des séquences du film d'animation musical Fantasia en 1940. Mais les studios Disney ne lui ont jamais consacré un film entier jusqu'à Dinosaure. Le sujet a été traité principalement par Le Petit Dinosaure et la Vallée des merveilles, réalisé par Don Bluth et produit par Steven Spielberg, sorti en 1988[1].
-Liste des espèces mises en scène dans le film
-Malgré de fortes incohérences d'ordre historique et graphique, les personnages de ce film sont tous basés sur des animaux ayant réellement existé.
+Le film Dinosaure utilise le même principe que la série documentaire britannique de la BBC Sur la terre des dinosaures créée par Tim Haines, et qui mélange images de synthèse (pour les personnages) et prises de vues réelles (pour les décors naturels). Sur la terre des dinosaures sort au début de l'année 2000. Fin 2000, au moment où sort Dinosaure de Disney, Jurassic Park III est en tournage.
+Dans le domaine du cinéma d'animation, les dinosaures sont apparus très tôt avec, dès 1914, le court métrage de dessin animé Gertie le dinosaure réalisé par Winsor McCay. Au moment où sort Dinosaure, le thème a été abordé brièvement par les studios Disney dans l'une des séquences du film d'animation musical Fantasia en 1940. Mais les studios Disney ne lui ont jamais consacré un film entier jusqu'à Dinosaure. Le sujet a été traité principalement par Le Petit Dinosaure et la Vallée des merveilles, réalisé par Don Bluth et produit par Steven Spielberg, sorti en 1988.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Dinosaure_(film,_2000)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinosaure_(film,_2000)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Analyse</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Liste des espèces mises en scène dans le film</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Malgré de fortes incohérences d'ordre historique et graphique, les personnages de ce film sont tous basés sur des animaux ayant réellement existé.
 Les espèces apparaissant dans le film sont les suivantes :
 Iguanodon
 Altirhinus
@@ -878,31 +1163,33 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Dinosaure_(film,_2000)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Dinosaure_(film,_2000)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Dinosaure_(film,_2000)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dinosaure_(film,_2000)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Adaptations</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jeu vidéo Dinosaure adapté du film est édité par Ubisoft. Il sortit en 2000 sur Windows, Dreamcast, PlayStation, PlayStation 2 et Game Boy Color.
 </t>
